--- a/IDs de clases.xlsx
+++ b/IDs de clases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datos\Programacion II\LANDO - GIT - V1.2\LANDO1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Program 2\LANDO1.1\LANDO1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81976381-2456-449C-860B-25FC916A6CC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F8AFF-CB71-4219-872F-837BB96B9310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CBE08AE-B658-4751-9104-79B0568C9920}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>NO CREADO AUN</t>
   </si>
   <si>
-    <t>Musica</t>
-  </si>
-  <si>
     <t>Genero_Musica</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Album</t>
+  </si>
+  <si>
+    <t>Cancion</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="B3:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>

--- a/IDs de clases.xlsx
+++ b/IDs de clases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Program 2\LANDO1.1\LANDO1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F8AFF-CB71-4219-872F-837BB96B9310}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D969A7-BE82-4C78-BFE7-F46A97E17E5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CBE08AE-B658-4751-9104-79B0568C9920}"/>
   </bookViews>
@@ -72,12 +72,6 @@
     <t>NO CREADO AUN</t>
   </si>
   <si>
-    <t>Genero_Musica</t>
-  </si>
-  <si>
-    <t>Premios_Musica</t>
-  </si>
-  <si>
     <t>Cantante</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>Cancion</t>
+  </si>
+  <si>
+    <t>Premios_Cancion</t>
+  </si>
+  <si>
+    <t>Genero_Cancion</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="B3:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
